--- a/doc/04_DB定義書_チームドアラ.xlsx
+++ b/doc/04_DB定義書_チームドアラ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\E-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ECEE4E-8F54-4A16-8F52-6C9D4C91D377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D14559D-BD81-44A5-96B1-61E70392DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15345" windowHeight="9960" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="aveweight" sheetId="3" r:id="rId3"/>
     <sheet name="contact" sheetId="7" r:id="rId4"/>
     <sheet name="sports" sheetId="4" r:id="rId5"/>
-    <sheet name="food" sheetId="8" r:id="rId6"/>
+    <sheet name="meal" sheetId="8" r:id="rId6"/>
     <sheet name="caloriesout" sheetId="12" r:id="rId7"/>
     <sheet name="weight" sheetId="11" r:id="rId8"/>
   </sheets>
@@ -427,10 +427,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>caloriein</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>caloriesout</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -500,10 +496,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>satietyratio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>食事</t>
     <rPh sb="0" eb="2">
       <t>ショクジ</t>
@@ -541,6 +533,14 @@
     <rPh sb="3" eb="5">
       <t>バンゴウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>satiety</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meal</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1154,7 +1154,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>40</v>
@@ -1169,10 +1169,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>44</v>
@@ -1187,7 +1187,7 @@
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>44</v>
@@ -1436,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1561,10 +1561,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>23</v>
@@ -1773,10 +1773,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>24</v>
@@ -1826,7 +1826,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="1"/>
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -2007,8 +2007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795AA3A2-2332-4331-8B43-EE23829F30AB}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2506,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC248F7-6649-41A0-A6B9-63395AAF9296}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2631,10 +2631,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>23</v>
@@ -2656,10 +2656,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>38</v>
@@ -3038,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8832520B-9F37-47AE-82B4-1677782B391D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>38</v>
@@ -3191,7 +3191,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>40</v>
@@ -3557,8 +3557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1536EF-501A-4356-8C86-2AA4071EF7C4}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3614,7 +3614,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3630,7 +3630,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table caloriein (</v>
+        <v>create table meal (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3685,10 +3685,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>23</v>
@@ -3713,10 +3713,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>37</v>
@@ -3765,10 +3765,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>23</v>
@@ -3779,7 +3779,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3791,10 +3791,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>37</v>
@@ -3805,11 +3805,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>satietyratio int ,</v>
+        <v>satiety int ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -4089,514 +4089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33637584-A533-4911-9C24-1F944E381E33}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6">
-        <v>44719</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="9">
-        <v>44722</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table caloriesout (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f t="shared" ref="L10:L11" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C9&lt;&gt;"",",","")</f>
-        <v>userid varchar (20),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>indaily date ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>caloriesout int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" ref="L17:L29" si="1">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD72639E-CD08-47C7-A6CD-FB1240300D79}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -4653,7 +4146,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4669,13 +4162,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="9">
-        <v>44721</v>
+        <v>44722</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -4713,7 +4206,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table weight (</v>
+        <v>create table caloriesout (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -4721,10 +4214,501 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:L11" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C9&lt;&gt;"",",","")</f>
+        <v>userid varchar (20),</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>indaily date ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>caloriesout int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" ref="L17:L29" si="1">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD72639E-CD08-47C7-A6CD-FB1240300D79}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>44719</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9">
+        <v>44721</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table weight (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>23</v>

--- a/doc/04_DB定義書_チームドアラ.xlsx
+++ b/doc/04_DB定義書_チームドアラ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\E-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D14559D-BD81-44A5-96B1-61E70392DC5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB92FC3-6E3C-4EE1-ACD8-A40D5F9C50EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15345" windowHeight="9960" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="88">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -541,6 +541,10 @@
   </si>
   <si>
     <t>meal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spsports</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2506,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC248F7-6649-41A0-A6B9-63395AAF9296}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:L13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3038,8 +3042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8832520B-9F37-47AE-82B4-1677782B391D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3194,7 +3198,7 @@
         <v>77</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>23</v>
@@ -3211,7 +3215,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
-        <v>sports varchar (40),</v>
+        <v>spsports varchar (40),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -4580,7 +4584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD72639E-CD08-47C7-A6CD-FB1240300D79}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_DB定義書_チームドアラ.xlsx
+++ b/doc/04_DB定義書_チームドアラ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB92FC3-6E3C-4EE1-ACD8-A40D5F9C50EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5261987-1437-4721-A21F-D9068538675E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="weight" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2510,7 +2511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC248F7-6649-41A0-A6B9-63395AAF9296}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -3042,7 +3043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8832520B-9F37-47AE-82B4-1677782B391D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_DB定義書_チームドアラ.xlsx
+++ b/doc/04_DB定義書_チームドアラ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5261987-1437-4721-A21F-D9068538675E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12A0326-F374-4947-B289-8E6FDE95EA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="weight" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2511,7 +2510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EC248F7-6649-41A0-A6B9-63395AAF9296}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4094,7 +4093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33637584-A533-4911-9C24-1F944E381E33}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
